--- a/Finflux Automation Excels/Client/5041-CompondingPenalityCharge-MakeRepayment-1stRepayment.xlsx
+++ b/Finflux Automation Excels/Client/5041-CompondingPenalityCharge-MakeRepayment-1stRepayment.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Modify Transaction" sheetId="1" r:id="rId1"/>
@@ -502,7 +502,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,7 +547,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
-        <v>260.29000000000002</v>
+        <v>260.2</v>
       </c>
       <c r="B3" s="5">
         <v>51.01</v>
@@ -559,7 +559,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="5">
-        <v>209.28</v>
+        <v>209.19</v>
       </c>
       <c r="F3" s="5">
         <v>114.65</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>2.4300000000000002</v>
+        <v>0</v>
       </c>
       <c r="B5" s="5">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="5">
-        <v>2.4300000000000002</v>
+        <v>0</v>
       </c>
       <c r="F5" s="5">
         <v>0</v>
@@ -614,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,10 +701,10 @@
         <v>0</v>
       </c>
       <c r="F4" s="5">
-        <v>2.4300000000000002</v>
+        <v>0</v>
       </c>
       <c r="G4" s="5">
-        <v>890.15</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -808,11 +808,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="4" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
@@ -962,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="J4" s="5">
-        <v>2.4300000000000002</v>
+        <v>0</v>
       </c>
       <c r="K4" s="5">
-        <v>890.15</v>
+        <v>887.72</v>
       </c>
       <c r="L4" s="5">
         <v>0</v>
@@ -979,7 +982,7 @@
       </c>
       <c r="P4" s="5"/>
       <c r="Q4" s="5">
-        <v>890.15</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -995,13 +998,13 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5">
-        <v>844.81</v>
+        <v>844.84</v>
       </c>
       <c r="G5" s="6">
-        <v>2474.7399999999998</v>
+        <v>2474.71</v>
       </c>
       <c r="H5" s="5">
-        <v>42.91</v>
+        <v>42.88</v>
       </c>
       <c r="I5" s="5">
         <v>0</v>
@@ -1040,13 +1043,13 @@
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5">
-        <v>844.38</v>
+        <v>844.4</v>
       </c>
       <c r="G6" s="6">
-        <v>1630.36</v>
+        <v>1630.31</v>
       </c>
       <c r="H6" s="5">
-        <v>43.34</v>
+        <v>43.32</v>
       </c>
       <c r="I6" s="5">
         <v>0</v>
@@ -1085,13 +1088,13 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5">
-        <v>848.18</v>
+        <v>848.2</v>
       </c>
       <c r="G7" s="5">
-        <v>782.18</v>
+        <v>782.11</v>
       </c>
       <c r="H7" s="5">
-        <v>39.54</v>
+        <v>39.520000000000003</v>
       </c>
       <c r="I7" s="5">
         <v>0</v>
@@ -1130,13 +1133,13 @@
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5">
-        <v>782.18</v>
+        <v>782.11</v>
       </c>
       <c r="G8" s="5">
         <v>0</v>
       </c>
       <c r="H8" s="5">
-        <v>39.51</v>
+        <v>39.49</v>
       </c>
       <c r="I8" s="5">
         <v>0</v>
@@ -1145,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="5">
-        <v>821.69</v>
+        <v>821.6</v>
       </c>
       <c r="L8" s="5">
         <v>0</v>
@@ -1159,7 +1162,7 @@
       </c>
       <c r="P8" s="5"/>
       <c r="Q8" s="5">
-        <v>821.69</v>
+        <v>821.6</v>
       </c>
     </row>
   </sheetData>
